--- a/Assets/Ryoo/Market/MarketData.xlsx
+++ b/Assets/Ryoo/Market/MarketData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smart\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smartrhj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDE5732-980E-41E1-A10D-8B5A527EE807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF8D7CD-E6AB-7E48-8FC9-38D92BE4C7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{80A68BC9-139C-458F-9387-B7B5331149A5}"/>
+    <workbookView xWindow="22740" yWindow="5060" windowWidth="21500" windowHeight="19400" xr2:uid="{80A68BC9-139C-458F-9387-B7B5331149A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,43 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>MarketScript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>딸기우유</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,9 +80,6 @@
   <si>
     <t>[과자]\n\n간식으로 먹기 좋은 단짠단짠한 과자</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[젤리]\n\n새콤하고 달콤한 곰돌이모양 젤리</t>
   </si>
   <si>
     <t>[젤리]\n\n새콤하고 달콤한 곰돌이모양 젤리</t>
@@ -129,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,146 +512,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EAFE59-956D-4AEB-B8C8-A38A75D2D635}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13">
+      <c r="C6">
         <v>1500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Assets/Ryoo/Market/MarketData.xlsx
+++ b/Assets/Ryoo/Market/MarketData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smartrhj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smartrhj/Documents/GitHub/Dission3/Assets/Ryoo/Market/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF8D7CD-E6AB-7E48-8FC9-38D92BE4C7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1933A83-FD4F-8141-902B-05E9DE1A9A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22740" yWindow="5060" windowWidth="21500" windowHeight="19400" xr2:uid="{80A68BC9-139C-458F-9387-B7B5331149A5}"/>
+    <workbookView xWindow="12680" yWindow="6820" windowWidth="21500" windowHeight="19400" xr2:uid="{80A68BC9-139C-458F-9387-B7B5331149A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>딸기우유</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,15 +512,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EAFE59-956D-4AEB-B8C8-A38A75D2D635}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -590,6 +591,17 @@
         <v>11</v>
       </c>
       <c r="C6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
         <v>1500</v>
       </c>
     </row>

--- a/Assets/Ryoo/Market/MarketData.xlsx
+++ b/Assets/Ryoo/Market/MarketData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smartrhj/Documents/GitHub/Dission3/Assets/Ryoo/Market/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smart\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1933A83-FD4F-8141-902B-05E9DE1A9A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDE5732-980E-41E1-A10D-8B5A527EE807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12680" yWindow="6820" windowWidth="21500" windowHeight="19400" xr2:uid="{80A68BC9-139C-458F-9387-B7B5331149A5}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{80A68BC9-139C-458F-9387-B7B5331149A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+  <si>
+    <t>MarketScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>딸기우유</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +116,9 @@
   <si>
     <t>[과자]\n\n간식으로 먹기 좋은 단짠단짠한 과자</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[젤리]\n\n새콤하고 달콤한 곰돌이모양 젤리</t>
   </si>
   <si>
     <t>[젤리]\n\n새콤하고 달콤한 곰돌이모양 젤리</t>
@@ -90,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,102 +551,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EAFE59-956D-4AEB-B8C8-A38A75D2D635}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1500</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>500</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
         <v>1500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>